--- a/M1809/yc/表头说明/新建 Microsoft Excel 工作表.xlsx
+++ b/M1809/yc/表头说明/新建 Microsoft Excel 工作表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5288EA10-9DB9-43CF-818B-66C86D9E20E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D909BD89-7A8F-4064-ABEB-16FE2E116918}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>0   总资产</t>
   </si>
   <si>
-    <t>2   资产负债比</t>
-  </si>
-  <si>
     <t>4   一年内到期的长期负债</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>12  营业外收入</t>
   </si>
   <si>
-    <t>15  每股收益</t>
-  </si>
-  <si>
     <t>16  经营净额</t>
   </si>
   <si>
@@ -106,10 +100,6 @@
   </si>
   <si>
     <t>资产负载表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超哥已经解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,6 +290,22 @@
   </si>
   <si>
     <t>除非净利润增长率 = (年末 - 年初)/ 年初 * 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15  每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营净额=经营活动产生的现金流量净额？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2   资产负债比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,13 +666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" activeCellId="1" sqref="B45 E17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
@@ -676,19 +682,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,361 +702,343 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3"/>
     </row>
